--- a/Collections/Евро/Spain/#EURO#Spain#Regular[1999-present]#circulation_quality.xlsx
+++ b/Collections/Евро/Spain/#EURO#Spain#Regular[1999-present]#circulation_quality.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="1cent" sheetId="4" r:id="rId1"/>
@@ -1153,14 +1153,15 @@
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
     <cellStyle name="Обычный 2" xfId="1"/>
   </cellStyles>
-  <dxfs count="31">
+  <dxfs count="16">
     <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <fill>
@@ -1266,127 +1267,6 @@
         </patternFill>
       </fill>
     </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
@@ -1418,9 +1298,9 @@
     <filterColumn colId="2" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="3">
-    <tableColumn id="1" name="№" dataDxfId="30"/>
-    <tableColumn id="2" name="Link" dataDxfId="29" dataCellStyle="Гиперссылка"/>
-    <tableColumn id="3" name="Description (single table, table set, mintage, prices):" dataDxfId="28"/>
+    <tableColumn id="1" name="№" dataDxfId="2"/>
+    <tableColumn id="2" name="Link" dataDxfId="1" dataCellStyle="Гиперссылка"/>
+    <tableColumn id="3" name="Description (single table, table set, mintage, prices):" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="1" showLastColumn="0" showRowStripes="0" showColumnStripes="0"/>
 </table>
@@ -2214,7 +2094,7 @@
     <mergeCell ref="C1:D1"/>
   </mergeCells>
   <conditionalFormatting sqref="F3:F23">
-    <cfRule type="containsText" dxfId="26" priority="1" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="15" priority="1" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F3))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2240,7 +2120,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="7" ySplit="2" topLeftCell="H3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
@@ -2751,7 +2631,7 @@
     <mergeCell ref="C1:D1"/>
   </mergeCells>
   <conditionalFormatting sqref="F3:F23">
-    <cfRule type="containsText" dxfId="24" priority="1" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="14" priority="1" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F3))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3288,7 +3168,7 @@
     <mergeCell ref="C1:D1"/>
   </mergeCells>
   <conditionalFormatting sqref="F3:F23">
-    <cfRule type="containsText" dxfId="21" priority="1" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="13" priority="1" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F3))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3863,7 +3743,7 @@
     <mergeCell ref="C1:D1"/>
   </mergeCells>
   <conditionalFormatting sqref="F23">
-    <cfRule type="containsText" dxfId="19" priority="11" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="12" priority="11" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F23))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="12">
@@ -3878,7 +3758,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F3:F22">
-    <cfRule type="containsText" dxfId="18" priority="1" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="11" priority="1" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F3))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4453,7 +4333,7 @@
     <mergeCell ref="C1:D1"/>
   </mergeCells>
   <conditionalFormatting sqref="F3:F22">
-    <cfRule type="containsText" dxfId="16" priority="1" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="10" priority="1" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F3))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4470,7 +4350,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F23">
-    <cfRule type="containsText" dxfId="13" priority="3" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="9" priority="3" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F23))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="4">
@@ -5043,7 +4923,7 @@
     <mergeCell ref="C1:D1"/>
   </mergeCells>
   <conditionalFormatting sqref="F3:F22">
-    <cfRule type="containsText" dxfId="10" priority="1" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="8" priority="1" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F3))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5060,7 +4940,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F23">
-    <cfRule type="containsText" dxfId="9" priority="3" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="7" priority="3" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F23))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="4">
@@ -5634,7 +5514,7 @@
     <mergeCell ref="C1:D1"/>
   </mergeCells>
   <conditionalFormatting sqref="F23">
-    <cfRule type="containsText" dxfId="7" priority="3" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="6" priority="3" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F23))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="4">
@@ -5649,7 +5529,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F3:F22">
-    <cfRule type="containsText" dxfId="6" priority="1" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="5" priority="1" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F3))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6225,7 +6105,7 @@
     <mergeCell ref="C1:D1"/>
   </mergeCells>
   <conditionalFormatting sqref="F23">
-    <cfRule type="containsText" dxfId="3" priority="3" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="4" priority="3" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F23))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="4">
@@ -6240,7 +6120,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F3:F22">
-    <cfRule type="containsText" dxfId="2" priority="1" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="3" priority="1" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F3))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6266,11 +6146,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C12" sqref="C12"/>
+      <selection pane="bottomRight" activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -6363,8 +6243,8 @@
     <hyperlink ref="B3" r:id="rId2"/>
     <hyperlink ref="B4" r:id="rId3"/>
     <hyperlink ref="B5" r:id="rId4"/>
-    <hyperlink ref="B6" r:id="rId5"/>
-    <hyperlink ref="B7" r:id="rId6"/>
+    <hyperlink ref="B7" r:id="rId5"/>
+    <hyperlink ref="B6" r:id="rId6"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
